--- a/simulation_data/one_step_algorithm/1s_error_level_13_percent_water_40.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_13_percent_water_40.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.67298958010009</v>
+        <v>90.44211690961797</v>
       </c>
       <c r="D2" t="n">
-        <v>2.900336069363665</v>
+        <v>2.906271259103467</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.78775519571759</v>
+        <v>88.95307279874383</v>
       </c>
       <c r="D3" t="n">
-        <v>3.444814978410173</v>
+        <v>2.691974303667457</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.48255274081755</v>
+        <v>88.27466212129399</v>
       </c>
       <c r="D4" t="n">
-        <v>3.021302018349624</v>
+        <v>3.215791925213606</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.69422241954371</v>
+        <v>86.9228461813566</v>
       </c>
       <c r="D5" t="n">
-        <v>3.373829070395593</v>
+        <v>2.815658490657494</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.98690694424708</v>
+        <v>86.18328490386116</v>
       </c>
       <c r="D6" t="n">
-        <v>3.164475016723277</v>
+        <v>2.487086780495825</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.74773739049935</v>
+        <v>85.28666319297851</v>
       </c>
       <c r="D7" t="n">
-        <v>3.515006340452051</v>
+        <v>2.670442413783446</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.95382071319401</v>
+        <v>83.7729442057901</v>
       </c>
       <c r="D8" t="n">
-        <v>3.201661222374894</v>
+        <v>3.487015497797115</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.02777738229439</v>
+        <v>83.01006193682025</v>
       </c>
       <c r="D9" t="n">
-        <v>3.615571219094151</v>
+        <v>3.367886028764463</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.0829206423702</v>
+        <v>82.23449086069331</v>
       </c>
       <c r="D10" t="n">
-        <v>3.176835911290884</v>
+        <v>3.005516444445391</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.96954171034838</v>
+        <v>80.38827986284404</v>
       </c>
       <c r="D11" t="n">
-        <v>3.639834275838413</v>
+        <v>3.232953018771992</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.54596516925348</v>
+        <v>79.96513242835496</v>
       </c>
       <c r="D12" t="n">
-        <v>3.403637367411437</v>
+        <v>3.717711368934803</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.76777249967051</v>
+        <v>78.56488357724737</v>
       </c>
       <c r="D13" t="n">
-        <v>3.271414555931881</v>
+        <v>3.037387384008144</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.21866670581862</v>
+        <v>78.05811714491644</v>
       </c>
       <c r="D14" t="n">
-        <v>3.532927276447573</v>
+        <v>3.380544004741153</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.06100230440516</v>
+        <v>76.80680173940122</v>
       </c>
       <c r="D15" t="n">
-        <v>3.230056806827315</v>
+        <v>3.625830753809197</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.36399961207513</v>
+        <v>76.47418140035606</v>
       </c>
       <c r="D16" t="n">
-        <v>3.404261259628013</v>
+        <v>3.490280058365999</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.2229420238115</v>
+        <v>74.64143961259738</v>
       </c>
       <c r="D17" t="n">
-        <v>3.722268857444314</v>
+        <v>3.13072221685525</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.14278417132141</v>
+        <v>73.97615601568523</v>
       </c>
       <c r="D18" t="n">
-        <v>3.67783601872892</v>
+        <v>3.40304870535084</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.22335174385539</v>
+        <v>72.80926340103922</v>
       </c>
       <c r="D19" t="n">
-        <v>3.167800525539886</v>
+        <v>3.7910836156466</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.55740184719876</v>
+        <v>71.59007015200116</v>
       </c>
       <c r="D20" t="n">
-        <v>3.52212050323882</v>
+        <v>3.603839622271048</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.31011055573622</v>
+        <v>70.80185345321799</v>
       </c>
       <c r="D21" t="n">
-        <v>3.454050770615634</v>
+        <v>4.164307959133359</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.42622173613057</v>
+        <v>69.70112386806061</v>
       </c>
       <c r="D22" t="n">
-        <v>3.802403208922515</v>
+        <v>2.960135207296707</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.65725889029223</v>
+        <v>68.79912588817432</v>
       </c>
       <c r="D23" t="n">
-        <v>3.641082150627986</v>
+        <v>3.671674861507348</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.26150421726277</v>
+        <v>67.82512257251193</v>
       </c>
       <c r="D24" t="n">
-        <v>3.985334319916242</v>
+        <v>3.961065892180484</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.5786823492685</v>
+        <v>67.36820513397547</v>
       </c>
       <c r="D25" t="n">
-        <v>3.297581979564972</v>
+        <v>4.209851453042294</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.76380912287337</v>
+        <v>65.62692055347891</v>
       </c>
       <c r="D26" t="n">
-        <v>3.68052241062459</v>
+        <v>3.961943485538348</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.71693283464997</v>
+        <v>65.02515070629453</v>
       </c>
       <c r="D27" t="n">
-        <v>3.639030066517821</v>
+        <v>3.858238769838895</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.6538404829331</v>
+        <v>64.03004118715941</v>
       </c>
       <c r="D28" t="n">
-        <v>3.865687391410453</v>
+        <v>3.819396983144867</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.8055979599649</v>
+        <v>62.40759680360985</v>
       </c>
       <c r="D29" t="n">
-        <v>4.058794070208732</v>
+        <v>3.880370482808125</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.59274986613276</v>
+        <v>61.85007460665204</v>
       </c>
       <c r="D30" t="n">
-        <v>3.665516234064849</v>
+        <v>3.560155977087429</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.54847433270152</v>
+        <v>61.2876689061731</v>
       </c>
       <c r="D31" t="n">
-        <v>3.841025885890782</v>
+        <v>3.797561987027641</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.22032569125519</v>
+        <v>60.48680947643464</v>
       </c>
       <c r="D32" t="n">
-        <v>3.489086750278831</v>
+        <v>3.472552506327751</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.63052873331146</v>
+        <v>58.65606716212437</v>
       </c>
       <c r="D33" t="n">
-        <v>3.941902430562168</v>
+        <v>4.680811030154612</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.8306609808016</v>
+        <v>57.61451564103027</v>
       </c>
       <c r="D34" t="n">
-        <v>4.115868282793706</v>
+        <v>4.003273940399306</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.40107661562251</v>
+        <v>57.45007028887019</v>
       </c>
       <c r="D35" t="n">
-        <v>4.094567569866907</v>
+        <v>3.859986166379129</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.95589056609499</v>
+        <v>55.70364184537573</v>
       </c>
       <c r="D36" t="n">
-        <v>3.61853041486823</v>
+        <v>4.288680635968911</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.61790559681906</v>
+        <v>55.97653578686536</v>
       </c>
       <c r="D37" t="n">
-        <v>4.158796384766984</v>
+        <v>4.027400206142596</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.81245891124958</v>
+        <v>53.8892991234146</v>
       </c>
       <c r="D38" t="n">
-        <v>4.618103654187006</v>
+        <v>3.999773812942891</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.53160603169512</v>
+        <v>53.653214695317</v>
       </c>
       <c r="D39" t="n">
-        <v>4.547307826083295</v>
+        <v>4.289873375659796</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.6081061546755</v>
+        <v>51.1640560066765</v>
       </c>
       <c r="D40" t="n">
-        <v>4.628595033222625</v>
+        <v>4.258109033063366</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.23547449199803</v>
+        <v>51.80120607392287</v>
       </c>
       <c r="D41" t="n">
-        <v>3.99511774389628</v>
+        <v>3.40961805271952</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.45288083976548</v>
+        <v>48.77314058055329</v>
       </c>
       <c r="D42" t="n">
-        <v>4.024480417306093</v>
+        <v>4.511797729705248</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.7329587080589</v>
+        <v>48.72180301397526</v>
       </c>
       <c r="D43" t="n">
-        <v>4.650241511208907</v>
+        <v>4.573114501305746</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.53077929553628</v>
+        <v>47.78094631678964</v>
       </c>
       <c r="D44" t="n">
-        <v>4.995991761191029</v>
+        <v>4.504579949269608</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.19989969276583</v>
+        <v>46.260671131663</v>
       </c>
       <c r="D45" t="n">
-        <v>4.222359420257579</v>
+        <v>4.334615652759814</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.39163471496546</v>
+        <v>45.0299983440465</v>
       </c>
       <c r="D46" t="n">
-        <v>4.7400176316075</v>
+        <v>4.291085495792249</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.34536832301308</v>
+        <v>45.1953249937928</v>
       </c>
       <c r="D47" t="n">
-        <v>4.479388437071316</v>
+        <v>4.703268675349044</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.33722534738575</v>
+        <v>43.46946944906647</v>
       </c>
       <c r="D48" t="n">
-        <v>4.935066332060321</v>
+        <v>4.616769467724905</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.85927345633075</v>
+        <v>42.44262160609771</v>
       </c>
       <c r="D49" t="n">
-        <v>5.159270982856002</v>
+        <v>4.756997271631301</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.56253072165107</v>
+        <v>42.08397829792911</v>
       </c>
       <c r="D50" t="n">
-        <v>4.373286154926396</v>
+        <v>4.715500709219794</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.630571573186</v>
+        <v>41.40566644344141</v>
       </c>
       <c r="D51" t="n">
-        <v>4.179827493311637</v>
+        <v>4.865703798275179</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.13142869099848</v>
+        <v>40.34888383084073</v>
       </c>
       <c r="D52" t="n">
-        <v>4.21216475666345</v>
+        <v>5.199984487164087</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.498282013978</v>
+        <v>37.99896785616486</v>
       </c>
       <c r="D53" t="n">
-        <v>4.550001867945077</v>
+        <v>5.35790935942599</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.92589159000015</v>
+        <v>37.37371406400143</v>
       </c>
       <c r="D54" t="n">
-        <v>5.030455043672474</v>
+        <v>4.901021068832537</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.11490651021592</v>
+        <v>37.39334004263432</v>
       </c>
       <c r="D55" t="n">
-        <v>5.11044187661956</v>
+        <v>5.11017702168245</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.77901537815907</v>
+        <v>36.33205212320192</v>
       </c>
       <c r="D56" t="n">
-        <v>5.4730834967041</v>
+        <v>4.711050498926549</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.43743680062574</v>
+        <v>35.69977309350935</v>
       </c>
       <c r="D57" t="n">
-        <v>4.439583042887981</v>
+        <v>4.733640852953913</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.50307239156668</v>
+        <v>33.03674604302822</v>
       </c>
       <c r="D58" t="n">
-        <v>4.191922560249509</v>
+        <v>4.973866523498657</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.52547169400273</v>
+        <v>33.35289926266374</v>
       </c>
       <c r="D59" t="n">
-        <v>4.875390254853014</v>
+        <v>4.158654213991055</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.79060177803741</v>
+        <v>31.78689857225691</v>
       </c>
       <c r="D60" t="n">
-        <v>4.477682900650382</v>
+        <v>5.028929674660598</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.39627411707469</v>
+        <v>30.19038718601814</v>
       </c>
       <c r="D61" t="n">
-        <v>4.688452961516632</v>
+        <v>4.806724125419485</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.68955940047136</v>
+        <v>28.97149952082924</v>
       </c>
       <c r="D62" t="n">
-        <v>5.080952752285081</v>
+        <v>4.874554987786886</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.00765262613253</v>
+        <v>29.21244357015756</v>
       </c>
       <c r="D63" t="n">
-        <v>5.802010655351385</v>
+        <v>5.305067510674348</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.79713392036295</v>
+        <v>28.33007499400519</v>
       </c>
       <c r="D64" t="n">
-        <v>5.192030962510776</v>
+        <v>4.844119370219851</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.07969204247453</v>
+        <v>26.32948114843366</v>
       </c>
       <c r="D65" t="n">
-        <v>4.897147473440237</v>
+        <v>5.092722374030505</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.57671022764408</v>
+        <v>25.60000825708789</v>
       </c>
       <c r="D66" t="n">
-        <v>5.107630172112938</v>
+        <v>5.271192556291734</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.08977493851388</v>
+        <v>24.53798433040653</v>
       </c>
       <c r="D67" t="n">
-        <v>5.226904945212008</v>
+        <v>5.529013359944257</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.46494567257794</v>
+        <v>23.81056842709468</v>
       </c>
       <c r="D68" t="n">
-        <v>5.318554410570692</v>
+        <v>5.784205511405768</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.42917238829592</v>
+        <v>23.20006272751924</v>
       </c>
       <c r="D69" t="n">
-        <v>4.956996161393745</v>
+        <v>5.194239077153012</v>
       </c>
     </row>
   </sheetData>
